--- a/季诚/成交客户/浩雄电气/标签.xlsx
+++ b/季诚/成交客户/浩雄电气/标签.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>Model：</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>H(70-75LM)</t>
-  </si>
-  <si>
-    <t>3.1-3.2V</t>
   </si>
   <si>
     <t>9V/60MA 2835</t>
@@ -120,16 +117,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,58 +228,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,38 +244,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -248,23 +254,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,55 +282,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,55 +432,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,67 +462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,21 +473,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,40 +491,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,17 +521,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,152 +578,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,12 +735,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1081,26 +1072,26 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.4" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1108,10 +1099,10 @@
       </c>
     </row>
     <row r="4" ht="17.4" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1119,35 +1110,35 @@
       </c>
     </row>
     <row r="5" ht="17.4" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="17.4" spans="1:3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" ht="17.4" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" ht="17.4" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1175,66 +1166,66 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.4" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="17.4" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" ht="17.4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" ht="17.4" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="17.4" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>1902180014</v>
       </c>
     </row>
     <row r="7" ht="17.4" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" ht="17.4" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1251,7 +1242,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -1291,7 +1282,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -1329,7 +1320,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
